--- a/Coding.xlsx
+++ b/Coding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Coding Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8032492-2E62-4450-8F86-31CB471969F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB14613-2D2D-48EC-93A6-7575F1E31A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Array</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Pointer Approach</t>
   </si>
   <si>
-    <t>Take a three pointers low(=0th index),mid(=0th index) and high(=len(array)-1 index)let array be a .Scan an array using mid index.Apply a loop till mid index &lt;=high th index. If 0 is found by a[mid] swap a[low] and a[mid] and increment both low and mid index.And if 1 is found only increment mid index.And if 2 is found swap a[mid] and a[high] and decrement only high index.</t>
-  </si>
-  <si>
     <t>O(n)</t>
   </si>
   <si>
@@ -73,6 +70,12 @@
   </si>
   <si>
     <t>Striver’s SDE Sheet – Top Coding Interview Problems (takeuforward.org)</t>
+  </si>
+  <si>
+    <t>https://www.online-python.com/M39XlJkArZ</t>
+  </si>
+  <si>
+    <t>Steps:                                                                          (1)Take a three pointers low(=0th index),mid(=0th index) and high(=len(array)-1 index)and let array be a                                                                                     .(2)Scan an array using mid index.Apply a loop till mid index &lt;=high th index.                            (3)If 0 is found by a[mid] swap a[low] and a[mid] and increment both low and mid index.And if 1 is found only increment mid index.And if 2 is found swap a[mid] and a[high] and decrement only high index.</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -482,30 +485,33 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -519,8 +525,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" display="https://takeuforward.org/interviews/strivers-sde-sheet-top-coding-interview-problems/" xr:uid="{CCD414CF-312B-489A-97E2-7D15FD8BADC8}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{0363002D-110B-496B-8CF9-F861CD55485B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Coding.xlsx
+++ b/Coding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Coding Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB14613-2D2D-48EC-93A6-7575F1E31A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54F679C-EE75-4E20-8D0C-C5C74FE26B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Use dictionary(or hashmap) to store respective number's frequency.Take  three count variables cnt0,cnt1 and cnt2 for storing corresponding number count.Append 0,1 and 2 to list using loop one by one until respective frequency becomes 0 while looping and decrement respective count while appending items in the list.</t>
-  </si>
-  <si>
     <t>Striver’s SDE Sheet – Top Coding Interview Problems (takeuforward.org)</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Steps:                                                                          (1)Take a three pointers low(=0th index),mid(=0th index) and high(=len(array)-1 index)and let array be a                                                                                     .(2)Scan an array using mid index.Apply a loop till mid index &lt;=high th index.                            (3)If 0 is found by a[mid] swap a[low] and a[mid] and increment both low and mid index.And if 1 is found only increment mid index.And if 2 is found swap a[mid] and a[high] and decrement only high index.</t>
+  </si>
+  <si>
+    <t>Steps:                                                                            (1)Use dictionary(or hashmap) to store respective number's frequency.And then store respective frequencies in  three count variables cnt0,cnt1 and cnt2 for                       (2)Append 0,1 and 2 to list using loop in this order(0-&gt;1-&gt;2) until respective frequency becomes 0 while looping and decrement respective count while appending items in the list.</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -494,15 +494,15 @@
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
